--- a/Src/DetailedSamples/Samples/SheetView/Output/SplitRowsColumns.xlsx
+++ b/Src/DetailedSamples/Samples/SheetView/Output/SplitRowsColumns.xlsx
@@ -2,31 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" activeTab="1" firstSheet="0"/>
+    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="R28ab28ea52ac45fc"/>
-    <sheet name="Xceed Trial License" sheetId="2" r:id="R7128e3888a65493b"/>
+    <sheet name="Sheet1" sheetId="1" r:id="Rd704a24369b3452f"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Split Rows and Columns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
   </si>
   <si>
     <t xml:space="preserve">YES</t>
   </si>
   <si>
-    <t xml:space="preserve">This workbook was created using the trial version of Xceed Workbooks for .NET.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please contact sales@xceed.com if you are ready to purchase.</t>
+    <t xml:space="preserve">NO</t>
   </si>
 </sst>
 </file>
@@ -37,7 +30,7 @@
     <numFmt numFmtId="164" formatCode="HH:mm"/>
     <numFmt numFmtId="165" formatCode="yyyy/MM/dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <color theme="1"/>
       <sz val="11"/>
@@ -47,12 +40,6 @@
       <b/>
       <color theme="1"/>
       <sz val="15.5"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFF8C00"/>
-      <sz val="16"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -86,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -104,7 +91,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="0">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -562,13 +548,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>2</v>
@@ -577,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>1</v>
@@ -598,13 +584,13 @@
         <v>2</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" s="8" t="s">
         <v>1</v>
@@ -613,28 +599,28 @@
         <v>1</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC6" s="8" t="s">
         <v>2</v>
@@ -646,22 +632,22 @@
         <v>1</v>
       </c>
       <c r="AF6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AK6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="8" t="s">
         <v>1</v>
@@ -676,34 +662,34 @@
         <v>1</v>
       </c>
       <c r="AP6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AR6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AX6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -711,7 +697,7 @@
         <v>44713.0208333333</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1</v>
@@ -729,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>1</v>
@@ -738,13 +724,13 @@
         <v>1</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>1</v>
@@ -756,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>2</v>
@@ -768,19 +754,19 @@
         <v>2</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="8" t="s">
         <v>1</v>
@@ -789,25 +775,25 @@
         <v>1</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="8" t="s">
         <v>1</v>
@@ -825,34 +811,34 @@
         <v>2</v>
       </c>
       <c r="AN7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AQ7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AS7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AU7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AW7" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="8" t="s">
         <v>1</v>
@@ -866,28 +852,28 @@
         <v>44713.0416666667</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>2</v>
@@ -899,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>2</v>
@@ -914,16 +900,16 @@
         <v>2</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>1</v>
@@ -932,13 +918,13 @@
         <v>2</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>1</v>
@@ -953,58 +939,58 @@
         <v>1</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AJ8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AN8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AP8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AS8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT8" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="8" t="s">
         <v>1</v>
@@ -1021,7 +1007,7 @@
         <v>44713.0625</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>1</v>
@@ -1030,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>1</v>
@@ -1039,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>1</v>
@@ -1051,10 +1037,10 @@
         <v>2</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>2</v>
@@ -1063,16 +1049,16 @@
         <v>1</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" s="8" t="s">
         <v>2</v>
@@ -1081,52 +1067,52 @@
         <v>2</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AD9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AF9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AI9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL9" s="8" t="s">
         <v>1</v>
@@ -1138,13 +1124,13 @@
         <v>2</v>
       </c>
       <c r="AO9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR9" s="8" t="s">
         <v>1</v>
@@ -1153,10 +1139,10 @@
         <v>1</v>
       </c>
       <c r="AT9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV9" s="8" t="s">
         <v>2</v>
@@ -1165,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="AX9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="8" t="s">
         <v>1</v>
@@ -1179,16 +1165,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>2</v>
@@ -1221,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10" s="8" t="s">
         <v>1</v>
@@ -1230,13 +1216,13 @@
         <v>1</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10" s="8" t="s">
         <v>1</v>
@@ -1251,16 +1237,16 @@
         <v>1</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AD10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" s="8" t="s">
         <v>1</v>
@@ -1269,22 +1255,22 @@
         <v>2</v>
       </c>
       <c r="AG10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AJ10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AL10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM10" s="8" t="s">
         <v>2</v>
@@ -1299,10 +1285,10 @@
         <v>1</v>
       </c>
       <c r="AQ10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS10" s="8" t="s">
         <v>1</v>
@@ -1317,13 +1303,13 @@
         <v>2</v>
       </c>
       <c r="AW10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1334,61 +1320,61 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11" s="8" t="s">
         <v>1</v>
@@ -1400,25 +1386,25 @@
         <v>1</v>
       </c>
       <c r="Y11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AA11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AE11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF11" s="8" t="s">
         <v>2</v>
@@ -1430,16 +1416,16 @@
         <v>2</v>
       </c>
       <c r="AI11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AL11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM11" s="8" t="s">
         <v>2</v>
@@ -1448,19 +1434,19 @@
         <v>2</v>
       </c>
       <c r="AO11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AQ11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AS11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="8" t="s">
         <v>1</v>
@@ -1469,10 +1455,10 @@
         <v>2</v>
       </c>
       <c r="AV11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="8" t="s">
         <v>1</v>
@@ -1498,13 +1484,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>2</v>
@@ -1513,10 +1499,10 @@
         <v>2</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>2</v>
@@ -1528,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="8" t="s">
         <v>2</v>
@@ -1537,22 +1523,22 @@
         <v>2</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12" s="8" t="s">
         <v>2</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="8" t="s">
         <v>1</v>
@@ -1570,22 +1556,22 @@
         <v>2</v>
       </c>
       <c r="AD12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AF12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ12" s="8" t="s">
         <v>1</v>
@@ -1597,25 +1583,25 @@
         <v>2</v>
       </c>
       <c r="AM12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ12" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AR12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT12" s="8" t="s">
         <v>2</v>
@@ -1627,13 +1613,13 @@
         <v>1</v>
       </c>
       <c r="AW12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AY12" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1650,13 +1636,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>1</v>
@@ -1665,10 +1651,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>1</v>
@@ -1680,10 +1666,10 @@
         <v>2</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="8" t="s">
         <v>2</v>
@@ -1692,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13" s="8" t="s">
         <v>1</v>
@@ -1701,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13" s="8" t="s">
         <v>2</v>
@@ -1734,10 +1720,10 @@
         <v>1</v>
       </c>
       <c r="AG13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="8" t="s">
         <v>2</v>
@@ -1746,13 +1732,13 @@
         <v>1</v>
       </c>
       <c r="AK13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AM13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN13" s="8" t="s">
         <v>1</v>
@@ -1764,22 +1750,22 @@
         <v>1</v>
       </c>
       <c r="AQ13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="8" t="s">
         <v>1</v>
@@ -1788,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="AY13" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1796,16 +1782,16 @@
         <v>44713.1666666667</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>1</v>
@@ -1814,58 +1800,58 @@
         <v>1</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="8" t="s">
         <v>2</v>
@@ -1880,19 +1866,19 @@
         <v>1</v>
       </c>
       <c r="AD14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AH14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI14" s="8" t="s">
         <v>2</v>
@@ -1904,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="AL14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14" s="8" t="s">
         <v>1</v>
@@ -1928,22 +1914,22 @@
         <v>1</v>
       </c>
       <c r="AT14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AV14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1954,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>2</v>
@@ -1966,31 +1952,31 @@
         <v>2</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>1</v>
@@ -1999,37 +1985,37 @@
         <v>2</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="X15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AB15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC15" s="8" t="s">
         <v>2</v>
@@ -2041,25 +2027,25 @@
         <v>1</v>
       </c>
       <c r="AF15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AH15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AK15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM15" s="8" t="s">
         <v>2</v>
@@ -2068,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="AO15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP15" s="8" t="s">
         <v>1</v>
@@ -2077,25 +2063,25 @@
         <v>2</v>
       </c>
       <c r="AR15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS15" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AT15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX15" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY15" s="8" t="s">
         <v>1</v>
@@ -2118,19 +2104,19 @@
         <v>2</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>1</v>
@@ -2139,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>1</v>
@@ -2148,19 +2134,19 @@
         <v>2</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U16" s="8" t="s">
         <v>2</v>
@@ -2181,16 +2167,16 @@
         <v>2</v>
       </c>
       <c r="AA16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE16" s="8" t="s">
         <v>1</v>
@@ -2202,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="AH16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="8" t="s">
         <v>2</v>
@@ -2211,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="AK16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL16" s="8" t="s">
         <v>2</v>
@@ -2220,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="AN16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16" s="8" t="s">
         <v>1</v>
@@ -2229,16 +2215,16 @@
         <v>1</v>
       </c>
       <c r="AQ16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AS16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT16" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU16" s="8" t="s">
         <v>1</v>
@@ -2253,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="AY16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2285,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>1</v>
@@ -2294,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>2</v>
@@ -2303,13 +2289,13 @@
         <v>2</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17" s="8" t="s">
         <v>2</v>
@@ -2318,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="U17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17" s="8" t="s">
         <v>1</v>
@@ -2330,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="Y17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="8" t="s">
         <v>1</v>
@@ -2351,37 +2337,37 @@
         <v>1</v>
       </c>
       <c r="AF17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="8" t="s">
         <v>1</v>
@@ -2390,25 +2376,25 @@
         <v>1</v>
       </c>
       <c r="AS17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AU17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AX17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY17" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2419,28 +2405,28 @@
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>2</v>
@@ -2449,25 +2435,25 @@
         <v>2</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18" s="8" t="s">
         <v>1</v>
@@ -2479,46 +2465,46 @@
         <v>1</v>
       </c>
       <c r="W18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AB18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AD18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AF18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AI18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK18" s="8" t="s">
         <v>2</v>
@@ -2530,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="AN18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18" s="8" t="s">
         <v>2</v>
@@ -2539,31 +2525,31 @@
         <v>2</v>
       </c>
       <c r="AQ18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AT18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AV18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -2571,19 +2557,19 @@
         <v>44713.2708333333</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>2</v>
@@ -2601,31 +2587,31 @@
         <v>2</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U19" s="8" t="s">
         <v>1</v>
@@ -2634,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X19" s="8" t="s">
         <v>1</v>
@@ -2649,31 +2635,31 @@
         <v>1</v>
       </c>
       <c r="AB19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="8" t="s">
         <v>2</v>
@@ -2694,13 +2680,13 @@
         <v>1</v>
       </c>
       <c r="AQ19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AS19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT19" s="8" t="s">
         <v>2</v>
@@ -2709,16 +2695,16 @@
         <v>2</v>
       </c>
       <c r="AV19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX19" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AY19" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2726,7 +2712,7 @@
         <v>44713.2916666667</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>2</v>
@@ -2738,7 +2724,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>1</v>
@@ -2747,22 +2733,22 @@
         <v>1</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>1</v>
@@ -2771,52 +2757,52 @@
         <v>2</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AB20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AD20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AF20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG20" s="8" t="s">
         <v>2</v>
@@ -2828,52 +2814,52 @@
         <v>2</v>
       </c>
       <c r="AJ20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AO20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AR20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AT20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU20" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV20" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AW20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2890,58 +2876,58 @@
         <v>1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S21" s="8" t="s">
         <v>2</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21" s="8" t="s">
         <v>1</v>
@@ -2950,13 +2936,13 @@
         <v>2</v>
       </c>
       <c r="Y21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB21" s="8" t="s">
         <v>2</v>
@@ -2965,13 +2951,13 @@
         <v>2</v>
       </c>
       <c r="AD21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG21" s="8" t="s">
         <v>2</v>
@@ -2986,10 +2972,10 @@
         <v>1</v>
       </c>
       <c r="AK21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM21" s="8" t="s">
         <v>2</v>
@@ -2998,22 +2984,22 @@
         <v>1</v>
       </c>
       <c r="AO21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ21" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AR21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS21" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AT21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU21" s="8" t="s">
         <v>2</v>
@@ -3022,10 +3008,10 @@
         <v>1</v>
       </c>
       <c r="AW21" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="8" t="s">
         <v>2</v>
@@ -3039,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>1</v>
@@ -3048,37 +3034,37 @@
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="8" t="s">
         <v>2</v>
@@ -3087,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T22" s="8" t="s">
         <v>2</v>
@@ -3096,28 +3082,28 @@
         <v>1</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="8" t="s">
         <v>1</v>
@@ -3129,13 +3115,13 @@
         <v>2</v>
       </c>
       <c r="AG22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AI22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ22" s="8" t="s">
         <v>1</v>
@@ -3144,16 +3130,16 @@
         <v>2</v>
       </c>
       <c r="AL22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AN22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP22" s="8" t="s">
         <v>1</v>
@@ -3162,10 +3148,10 @@
         <v>2</v>
       </c>
       <c r="AR22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT22" s="8" t="s">
         <v>2</v>
@@ -3174,16 +3160,16 @@
         <v>1</v>
       </c>
       <c r="AV22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AX22" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -3191,13 +3177,13 @@
         <v>44713.3541666667</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>2</v>
@@ -3209,40 +3195,40 @@
         <v>2</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23" s="8" t="s">
         <v>1</v>
@@ -3251,49 +3237,49 @@
         <v>1</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W23" s="8" t="s">
         <v>2</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AB23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="8" t="s">
         <v>1</v>
@@ -3302,40 +3288,40 @@
         <v>2</v>
       </c>
       <c r="AM23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN23" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AO23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AQ23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR23" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AS23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AU23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX23" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY23" s="8" t="s">
         <v>1</v>
@@ -3346,22 +3332,22 @@
         <v>44713.375</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>1</v>
@@ -3373,10 +3359,10 @@
         <v>2</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>1</v>
@@ -3385,13 +3371,13 @@
         <v>2</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24" s="8" t="s">
         <v>1</v>
@@ -3403,13 +3389,13 @@
         <v>1</v>
       </c>
       <c r="U24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X24" s="8" t="s">
         <v>1</v>
@@ -3418,13 +3404,13 @@
         <v>2</v>
       </c>
       <c r="Z24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AB24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="8" t="s">
         <v>2</v>
@@ -3433,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="AE24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF24" s="8" t="s">
         <v>1</v>
@@ -3442,37 +3428,37 @@
         <v>2</v>
       </c>
       <c r="AH24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AJ24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK24" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AL24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AO24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AQ24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS24" s="8" t="s">
         <v>1</v>
@@ -3484,13 +3470,13 @@
         <v>1</v>
       </c>
       <c r="AV24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY24" s="8" t="s">
         <v>2</v>
@@ -3510,40 +3496,40 @@
         <v>2</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="8" t="s">
         <v>2</v>
@@ -3552,37 +3538,37 @@
         <v>2</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="8" t="s">
         <v>1</v>
@@ -3600,19 +3586,19 @@
         <v>2</v>
       </c>
       <c r="AI25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN25" s="8" t="s">
         <v>1</v>
@@ -3621,34 +3607,34 @@
         <v>1</v>
       </c>
       <c r="AP25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AS25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX25" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -3656,19 +3642,19 @@
         <v>44713.4166666667</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>2</v>
@@ -3686,22 +3672,22 @@
         <v>1</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>2</v>
@@ -3716,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W26" s="8" t="s">
         <v>1</v>
@@ -3725,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="Y26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z26" s="8" t="s">
         <v>1</v>
@@ -3737,16 +3723,16 @@
         <v>1</v>
       </c>
       <c r="AC26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD26" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AE26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG26" s="8" t="s">
         <v>2</v>
@@ -3755,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="AI26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ26" s="8" t="s">
         <v>2</v>
@@ -3767,31 +3753,31 @@
         <v>2</v>
       </c>
       <c r="AM26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ26" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AR26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AU26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV26" s="8" t="s">
         <v>1</v>
@@ -3803,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="AY26" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -3811,13 +3797,13 @@
         <v>44713.4375</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>1</v>
@@ -3844,16 +3830,16 @@
         <v>2</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="8" t="s">
         <v>2</v>
@@ -3865,16 +3851,16 @@
         <v>2</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V27" s="8" t="s">
         <v>1</v>
       </c>
       <c r="W27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X27" s="8" t="s">
         <v>1</v>
@@ -3883,13 +3869,13 @@
         <v>2</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA27" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AB27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC27" s="8" t="s">
         <v>1</v>
@@ -3910,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="AI27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ27" s="8" t="s">
         <v>2</v>
@@ -3925,13 +3911,13 @@
         <v>1</v>
       </c>
       <c r="AN27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO27" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AP27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ27" s="8" t="s">
         <v>1</v>
@@ -3940,10 +3926,10 @@
         <v>2</v>
       </c>
       <c r="AS27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU27" s="8" t="s">
         <v>2</v>
@@ -3952,13 +3938,13 @@
         <v>2</v>
       </c>
       <c r="AW27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY27" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -3969,13 +3955,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>2</v>
@@ -3987,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>2</v>
@@ -4002,13 +3988,13 @@
         <v>2</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="8" t="s">
         <v>2</v>
@@ -4023,70 +4009,70 @@
         <v>2</v>
       </c>
       <c r="U28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V28" s="8" t="s">
         <v>1</v>
       </c>
       <c r="W28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AA28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AC28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH28" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AI28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ28" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AK28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO28" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="8" t="s">
         <v>1</v>
@@ -4101,10 +4087,10 @@
         <v>1</v>
       </c>
       <c r="AU28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW28" s="8" t="s">
         <v>2</v>
@@ -4121,16 +4107,16 @@
         <v>44713.4791666667</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>1</v>
@@ -4139,10 +4125,10 @@
         <v>2</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>2</v>
@@ -4157,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" s="8" t="s">
         <v>2</v>
@@ -4169,13 +4155,13 @@
         <v>1</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U29" s="8" t="s">
         <v>1</v>
@@ -4184,13 +4170,13 @@
         <v>1</v>
       </c>
       <c r="W29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="8" t="s">
         <v>1</v>
@@ -4214,61 +4200,61 @@
         <v>2</v>
       </c>
       <c r="AG29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AI29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL29" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AM29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AP29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR29" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AS29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AU29" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV29" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AW29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX29" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AY29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -4276,16 +4262,16 @@
         <v>44713.5</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>2</v>
@@ -4297,43 +4283,43 @@
         <v>1</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30" s="8" t="s">
         <v>1</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S30" s="8" t="s">
         <v>1</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V30" s="8" t="s">
         <v>1</v>
@@ -4348,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="Z30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="8" t="s">
         <v>2</v>
@@ -4372,19 +4358,19 @@
         <v>1</v>
       </c>
       <c r="AH30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI30" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AJ30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM30" s="8" t="s">
         <v>1</v>
@@ -4393,34 +4379,34 @@
         <v>2</v>
       </c>
       <c r="AO30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS30" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AT30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU30" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AV30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW30" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY30" s="8" t="s">
         <v>1</v>
@@ -4434,34 +4420,34 @@
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>2</v>
@@ -4470,28 +4456,28 @@
         <v>2</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="8" t="s">
         <v>2</v>
@@ -4500,16 +4486,16 @@
         <v>2</v>
       </c>
       <c r="Y31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AB31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="8" t="s">
         <v>1</v>
@@ -4521,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="AF31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG31" s="8" t="s">
         <v>1</v>
@@ -4530,7 +4516,7 @@
         <v>2</v>
       </c>
       <c r="AI31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ31" s="8" t="s">
         <v>2</v>
@@ -4539,46 +4525,46 @@
         <v>1</v>
       </c>
       <c r="AL31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AO31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AS31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX31" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -4586,16 +4572,16 @@
         <v>44713.5416666667</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>2</v>
@@ -4607,16 +4593,16 @@
         <v>1</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>1</v>
@@ -4625,55 +4611,55 @@
         <v>1</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S32" s="8" t="s">
         <v>1</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="V32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AA32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AC32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AE32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF32" s="8" t="s">
         <v>2</v>
@@ -4688,10 +4674,10 @@
         <v>2</v>
       </c>
       <c r="AJ32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL32" s="8" t="s">
         <v>1</v>
@@ -4700,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="AN32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO32" s="8" t="s">
         <v>2</v>
@@ -4709,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="AQ32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR32" s="8" t="s">
         <v>2</v>
@@ -4727,10 +4713,10 @@
         <v>1</v>
       </c>
       <c r="AW32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX32" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY32" s="8" t="s">
         <v>2</v>
@@ -4741,31 +4727,31 @@
         <v>44713.5625</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>2</v>
@@ -4777,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>1</v>
@@ -4786,7 +4772,7 @@
         <v>2</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>1</v>
@@ -4798,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V33" s="8" t="s">
         <v>2</v>
@@ -4807,25 +4793,25 @@
         <v>1</v>
       </c>
       <c r="X33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB33" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AC33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE33" s="8" t="s">
         <v>1</v>
@@ -4834,19 +4820,19 @@
         <v>2</v>
       </c>
       <c r="AG33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI33" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AJ33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL33" s="8" t="s">
         <v>2</v>
@@ -4855,10 +4841,10 @@
         <v>1</v>
       </c>
       <c r="AN33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP33" s="8" t="s">
         <v>2</v>
@@ -4870,25 +4856,25 @@
         <v>1</v>
       </c>
       <c r="AS33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW33" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AX33" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -4896,13 +4882,13 @@
         <v>44713.5833333333</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>1</v>
@@ -4911,10 +4897,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>1</v>
@@ -4923,16 +4909,16 @@
         <v>1</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>1</v>
@@ -4941,22 +4927,22 @@
         <v>1</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S34" s="8" t="s">
         <v>2</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U34" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W34" s="8" t="s">
         <v>2</v>
@@ -4968,28 +4954,28 @@
         <v>2</v>
       </c>
       <c r="Z34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AD34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH34" s="8" t="s">
         <v>1</v>
@@ -4998,7 +4984,7 @@
         <v>2</v>
       </c>
       <c r="AJ34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK34" s="8" t="s">
         <v>2</v>
@@ -5007,10 +4993,10 @@
         <v>2</v>
       </c>
       <c r="AM34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO34" s="8" t="s">
         <v>1</v>
@@ -5022,7 +5008,7 @@
         <v>2</v>
       </c>
       <c r="AR34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS34" s="8" t="s">
         <v>1</v>
@@ -5031,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="AU34" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV34" s="8" t="s">
         <v>1</v>
@@ -5040,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="AX34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY34" s="8" t="s">
         <v>1</v>
@@ -5051,10 +5037,10 @@
         <v>44713.6041666667</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>2</v>
@@ -5066,31 +5052,31 @@
         <v>1</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P35" s="8" t="s">
         <v>2</v>
@@ -5102,22 +5088,22 @@
         <v>2</v>
       </c>
       <c r="S35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="8" t="s">
         <v>2</v>
       </c>
       <c r="X35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y35" s="8" t="s">
         <v>1</v>
@@ -5129,46 +5115,46 @@
         <v>1</v>
       </c>
       <c r="AB35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC35" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AD35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE35" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AF35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ35" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AK35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP35" s="8" t="s">
         <v>2</v>
@@ -5177,16 +5163,16 @@
         <v>1</v>
       </c>
       <c r="AR35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS35" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AT35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU35" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV35" s="8" t="s">
         <v>1</v>
@@ -5195,7 +5181,7 @@
         <v>2</v>
       </c>
       <c r="AX35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY35" s="8" t="s">
         <v>1</v>
@@ -5206,7 +5192,7 @@
         <v>44713.625</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>1</v>
@@ -5215,16 +5201,16 @@
         <v>2</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>2</v>
@@ -5236,22 +5222,22 @@
         <v>2</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O36" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R36" s="8" t="s">
         <v>2</v>
@@ -5260,19 +5246,19 @@
         <v>2</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V36" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="8" t="s">
         <v>1</v>
@@ -5284,43 +5270,43 @@
         <v>1</v>
       </c>
       <c r="AB36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE36" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AF36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK36" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AL36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO36" s="8" t="s">
         <v>1</v>
@@ -5329,22 +5315,22 @@
         <v>2</v>
       </c>
       <c r="AQ36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS36" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AT36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV36" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW36" s="8" t="s">
         <v>2</v>
@@ -5361,10 +5347,10 @@
         <v>44713.6458333333</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>1</v>
@@ -5376,28 +5362,28 @@
         <v>1</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>1</v>
@@ -5406,7 +5392,7 @@
         <v>2</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37" s="8" t="s">
         <v>1</v>
@@ -5415,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U37" s="8" t="s">
         <v>2</v>
@@ -5427,7 +5413,7 @@
         <v>2</v>
       </c>
       <c r="X37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y37" s="8" t="s">
         <v>2</v>
@@ -5442,22 +5428,22 @@
         <v>1</v>
       </c>
       <c r="AC37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG37" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AH37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI37" s="8" t="s">
         <v>2</v>
@@ -5466,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="AK37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="8" t="s">
         <v>2</v>
@@ -5478,13 +5464,13 @@
         <v>1</v>
       </c>
       <c r="AO37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP37" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AQ37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR37" s="8" t="s">
         <v>2</v>
@@ -5505,10 +5491,10 @@
         <v>2</v>
       </c>
       <c r="AX37" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -5516,16 +5502,16 @@
         <v>44713.6666666667</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>2</v>
@@ -5543,28 +5529,28 @@
         <v>2</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S38" s="8" t="s">
         <v>1</v>
@@ -5573,13 +5559,13 @@
         <v>1</v>
       </c>
       <c r="U38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V38" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X38" s="8" t="s">
         <v>1</v>
@@ -5588,25 +5574,25 @@
         <v>2</v>
       </c>
       <c r="Z38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA38" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AB38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG38" s="8" t="s">
         <v>2</v>
@@ -5615,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="AI38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ38" s="8" t="s">
         <v>2</v>
@@ -5633,10 +5619,10 @@
         <v>1</v>
       </c>
       <c r="AO38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ38" s="8" t="s">
         <v>1</v>
@@ -5645,16 +5631,16 @@
         <v>2</v>
       </c>
       <c r="AS38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW38" s="8" t="s">
         <v>2</v>
@@ -5663,7 +5649,7 @@
         <v>2</v>
       </c>
       <c r="AY38" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -5671,37 +5657,37 @@
         <v>44713.6875</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>2</v>
@@ -5710,13 +5696,13 @@
         <v>1</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R39" s="8" t="s">
         <v>1</v>
@@ -5725,49 +5711,49 @@
         <v>1</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="X39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AF39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AH39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI39" s="8" t="s">
         <v>2</v>
@@ -5776,22 +5762,22 @@
         <v>1</v>
       </c>
       <c r="AK39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO39" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AP39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ39" s="8" t="s">
         <v>2</v>
@@ -5800,13 +5786,13 @@
         <v>1</v>
       </c>
       <c r="AS39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU39" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV39" s="8" t="s">
         <v>1</v>
@@ -5818,7 +5804,7 @@
         <v>2</v>
       </c>
       <c r="AY39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -5832,31 +5818,31 @@
         <v>1</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>1</v>
@@ -5865,34 +5851,34 @@
         <v>1</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W40" s="8" t="s">
         <v>2</v>
       </c>
       <c r="X40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y40" s="8" t="s">
         <v>2</v>
@@ -5901,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="AA40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB40" s="8" t="s">
         <v>1</v>
@@ -5910,16 +5896,16 @@
         <v>1</v>
       </c>
       <c r="AD40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH40" s="8" t="s">
         <v>1</v>
@@ -5931,46 +5917,46 @@
         <v>2</v>
       </c>
       <c r="AK40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL40" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AM40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP40" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AQ40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT40" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AU40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX40" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY40" s="8" t="s">
         <v>1</v>
@@ -5987,25 +5973,25 @@
         <v>1</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>1</v>
@@ -6014,7 +6000,7 @@
         <v>2</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>2</v>
@@ -6023,31 +6009,31 @@
         <v>1</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R41" s="8" t="s">
         <v>1</v>
       </c>
       <c r="S41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U41" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y41" s="8" t="s">
         <v>1</v>
@@ -6059,7 +6045,7 @@
         <v>2</v>
       </c>
       <c r="AB41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC41" s="8" t="s">
         <v>2</v>
@@ -6068,13 +6054,13 @@
         <v>1</v>
       </c>
       <c r="AE41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF41" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AG41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH41" s="8" t="s">
         <v>2</v>
@@ -6086,19 +6072,19 @@
         <v>1</v>
       </c>
       <c r="AK41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL41" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AM41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN41" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AO41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP41" s="8" t="s">
         <v>2</v>
@@ -6110,19 +6096,19 @@
         <v>1</v>
       </c>
       <c r="AS41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX41" s="8" t="s">
         <v>1</v>
@@ -6136,19 +6122,19 @@
         <v>44713.75</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>1</v>
@@ -6172,10 +6158,10 @@
         <v>1</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P42" s="8" t="s">
         <v>2</v>
@@ -6193,22 +6179,22 @@
         <v>1</v>
       </c>
       <c r="U42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V42" s="8" t="s">
         <v>2</v>
       </c>
       <c r="W42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X42" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Y42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA42" s="8" t="s">
         <v>1</v>
@@ -6217,13 +6203,13 @@
         <v>1</v>
       </c>
       <c r="AC42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AE42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF42" s="8" t="s">
         <v>1</v>
@@ -6235,13 +6221,13 @@
         <v>1</v>
       </c>
       <c r="AI42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ42" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL42" s="8" t="s">
         <v>1</v>
@@ -6253,7 +6239,7 @@
         <v>2</v>
       </c>
       <c r="AO42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP42" s="8" t="s">
         <v>1</v>
@@ -6268,7 +6254,7 @@
         <v>2</v>
       </c>
       <c r="AT42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU42" s="8" t="s">
         <v>1</v>
@@ -6277,10 +6263,10 @@
         <v>1</v>
       </c>
       <c r="AW42" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY42" s="8" t="s">
         <v>1</v>
@@ -6291,19 +6277,19 @@
         <v>44713.7708333333</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>1</v>
@@ -6312,7 +6298,7 @@
         <v>2</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>1</v>
@@ -6321,31 +6307,31 @@
         <v>1</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P43" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R43" s="8" t="s">
         <v>2</v>
       </c>
       <c r="S43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U43" s="8" t="s">
         <v>2</v>
@@ -6354,31 +6340,31 @@
         <v>2</v>
       </c>
       <c r="W43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X43" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Y43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z43" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AA43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF43" s="8" t="s">
         <v>1</v>
@@ -6390,28 +6376,28 @@
         <v>2</v>
       </c>
       <c r="AI43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK43" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AL43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN43" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AO43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP43" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ43" s="8" t="s">
         <v>2</v>
@@ -6423,7 +6409,7 @@
         <v>2</v>
       </c>
       <c r="AT43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU43" s="8" t="s">
         <v>2</v>
@@ -6452,34 +6438,34 @@
         <v>1</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>1</v>
@@ -6488,25 +6474,25 @@
         <v>1</v>
       </c>
       <c r="P44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q44" s="8" t="s">
         <v>2</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T44" s="8" t="s">
         <v>2</v>
       </c>
       <c r="U44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W44" s="8" t="s">
         <v>1</v>
@@ -6515,7 +6501,7 @@
         <v>2</v>
       </c>
       <c r="Y44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z44" s="8" t="s">
         <v>2</v>
@@ -6524,19 +6510,19 @@
         <v>2</v>
       </c>
       <c r="AB44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG44" s="8" t="s">
         <v>2</v>
@@ -6545,19 +6531,19 @@
         <v>2</v>
       </c>
       <c r="AI44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ44" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AK44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN44" s="8" t="s">
         <v>2</v>
@@ -6566,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="AP44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ44" s="8" t="s">
         <v>2</v>
@@ -6578,19 +6564,19 @@
         <v>1</v>
       </c>
       <c r="AT44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AV44" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW44" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AX44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY44" s="8" t="s">
         <v>2</v>
@@ -6601,10 +6587,10 @@
         <v>44713.8125</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>2</v>
@@ -6616,10 +6602,10 @@
         <v>1</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>2</v>
@@ -6631,58 +6617,58 @@
         <v>2</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P45" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U45" s="8" t="s">
         <v>1</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X45" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Y45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="8" t="s">
         <v>2</v>
@@ -6709,31 +6695,31 @@
         <v>2</v>
       </c>
       <c r="AL45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM45" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AN45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO45" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AP45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU45" s="8" t="s">
         <v>2</v>
@@ -6748,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="AY45" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -6756,13 +6742,13 @@
         <v>44713.8333333333</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>1</v>
@@ -6771,13 +6757,13 @@
         <v>2</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>2</v>
@@ -6786,7 +6772,7 @@
         <v>2</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>1</v>
@@ -6795,13 +6781,13 @@
         <v>1</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P46" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R46" s="8" t="s">
         <v>1</v>
@@ -6813,19 +6799,19 @@
         <v>2</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W46" s="8" t="s">
         <v>2</v>
       </c>
       <c r="X46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z46" s="8" t="s">
         <v>1</v>
@@ -6834,10 +6820,10 @@
         <v>2</v>
       </c>
       <c r="AB46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="8" t="s">
         <v>2</v>
@@ -6846,22 +6832,22 @@
         <v>2</v>
       </c>
       <c r="AF46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH46" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AI46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="8" t="s">
         <v>1</v>
@@ -6870,40 +6856,40 @@
         <v>1</v>
       </c>
       <c r="AN46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO46" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AP46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU46" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AV46" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -6914,43 +6900,43 @@
         <v>1</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>1</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P47" s="8" t="s">
         <v>1</v>
@@ -6971,7 +6957,7 @@
         <v>1</v>
       </c>
       <c r="V47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W47" s="8" t="s">
         <v>1</v>
@@ -6989,19 +6975,19 @@
         <v>1</v>
       </c>
       <c r="AB47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AD47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE47" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AF47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG47" s="8" t="s">
         <v>2</v>
@@ -7010,7 +6996,7 @@
         <v>2</v>
       </c>
       <c r="AI47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ47" s="8" t="s">
         <v>2</v>
@@ -7025,19 +7011,19 @@
         <v>1</v>
       </c>
       <c r="AN47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO47" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AP47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ47" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AR47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS47" s="8" t="s">
         <v>2</v>
@@ -7052,13 +7038,13 @@
         <v>1</v>
       </c>
       <c r="AW47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY47" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -7069,13 +7055,13 @@
         <v>2</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>1</v>
@@ -7093,28 +7079,28 @@
         <v>2</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N48" s="8" t="s">
         <v>1</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S48" s="8" t="s">
         <v>2</v>
@@ -7123,7 +7109,7 @@
         <v>2</v>
       </c>
       <c r="U48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V48" s="8" t="s">
         <v>1</v>
@@ -7132,19 +7118,19 @@
         <v>2</v>
       </c>
       <c r="X48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Z48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA48" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AB48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC48" s="8" t="s">
         <v>1</v>
@@ -7153,49 +7139,49 @@
         <v>1</v>
       </c>
       <c r="AE48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AH48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ48" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AK48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM48" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AN48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP48" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AQ48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT48" s="8" t="s">
         <v>2</v>
@@ -7210,10 +7196,10 @@
         <v>1</v>
       </c>
       <c r="AX48" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -7224,16 +7210,16 @@
         <v>2</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>2</v>
@@ -7242,13 +7228,13 @@
         <v>1</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>1</v>
@@ -7257,16 +7243,16 @@
         <v>2</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P49" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R49" s="8" t="s">
         <v>2</v>
@@ -7281,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="V49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W49" s="8" t="s">
         <v>2</v>
@@ -7290,7 +7276,7 @@
         <v>1</v>
       </c>
       <c r="Y49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z49" s="8" t="s">
         <v>1</v>
@@ -7299,7 +7285,7 @@
         <v>2</v>
       </c>
       <c r="AB49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC49" s="8" t="s">
         <v>2</v>
@@ -7314,16 +7300,16 @@
         <v>1</v>
       </c>
       <c r="AG49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH49" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AI49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK49" s="8" t="s">
         <v>2</v>
@@ -7332,7 +7318,7 @@
         <v>2</v>
       </c>
       <c r="AM49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN49" s="8" t="s">
         <v>2</v>
@@ -7350,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="AS49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="8" t="s">
         <v>1</v>
@@ -7362,13 +7348,13 @@
         <v>2</v>
       </c>
       <c r="AW49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX49" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AY49" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -7379,10 +7365,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>1</v>
@@ -7397,7 +7383,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>1</v>
@@ -7418,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q50" s="8" t="s">
         <v>1</v>
@@ -7430,37 +7416,37 @@
         <v>1</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="X50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AB50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC50" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AD50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE50" s="8" t="s">
         <v>2</v>
@@ -7469,10 +7455,10 @@
         <v>1</v>
       </c>
       <c r="AG50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI50" s="8" t="s">
         <v>1</v>
@@ -7484,28 +7470,28 @@
         <v>2</v>
       </c>
       <c r="AL50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ50" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AR50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT50" s="8" t="s">
         <v>2</v>
@@ -7517,13 +7503,13 @@
         <v>2</v>
       </c>
       <c r="AW50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX50" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -7534,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>2</v>
@@ -7543,13 +7529,13 @@
         <v>1</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>2</v>
@@ -7558,22 +7544,22 @@
         <v>2</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>1</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>2</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="8" t="s">
         <v>2</v>
@@ -7582,19 +7568,19 @@
         <v>1</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51" s="8" t="s">
         <v>1</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X51" s="8" t="s">
         <v>2</v>
@@ -7606,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="AA51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB51" s="8" t="s">
         <v>1</v>
@@ -7615,10 +7601,10 @@
         <v>1</v>
       </c>
       <c r="AD51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF51" s="8" t="s">
         <v>2</v>
@@ -7642,7 +7628,7 @@
         <v>1</v>
       </c>
       <c r="AM51" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN51" s="8" t="s">
         <v>2</v>
@@ -7651,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="AP51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ51" s="8" t="s">
         <v>1</v>
@@ -7660,16 +7646,16 @@
         <v>2</v>
       </c>
       <c r="AS51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW51" s="8" t="s">
         <v>2</v>
@@ -7678,7 +7664,7 @@
         <v>2</v>
       </c>
       <c r="AY51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -7689,19 +7675,19 @@
         <v>1</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>2</v>
@@ -7719,19 +7705,19 @@
         <v>1</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R52" s="8" t="s">
         <v>1</v>
@@ -7752,7 +7738,7 @@
         <v>2</v>
       </c>
       <c r="X52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y52" s="8" t="s">
         <v>2</v>
@@ -7764,19 +7750,19 @@
         <v>2</v>
       </c>
       <c r="AB52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC52" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AD52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG52" s="8" t="s">
         <v>2</v>
@@ -7785,13 +7771,13 @@
         <v>1</v>
       </c>
       <c r="AI52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="8" t="s">
         <v>1</v>
@@ -7803,25 +7789,25 @@
         <v>1</v>
       </c>
       <c r="AO52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP52" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AQ52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT52" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV52" s="8" t="s">
         <v>1</v>
@@ -7830,7 +7816,7 @@
         <v>2</v>
       </c>
       <c r="AX52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY52" s="8" t="s">
         <v>1</v>
@@ -7841,7 +7827,7 @@
         <v>44713.9791666667</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>2</v>
@@ -7853,10 +7839,10 @@
         <v>2</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>2</v>
@@ -7871,13 +7857,13 @@
         <v>2</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>1</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>2</v>
@@ -7886,10 +7872,10 @@
         <v>1</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S53" s="8" t="s">
         <v>2</v>
@@ -7898,37 +7884,37 @@
         <v>2</v>
       </c>
       <c r="U53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X53" s="8" t="s">
         <v>1</v>
       </c>
       <c r="Y53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA53" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AB53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD53" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AE53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF53" s="8" t="s">
         <v>1</v>
@@ -7940,7 +7926,7 @@
         <v>2</v>
       </c>
       <c r="AI53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ53" s="8" t="s">
         <v>2</v>
@@ -7949,7 +7935,7 @@
         <v>2</v>
       </c>
       <c r="AL53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM53" s="8" t="s">
         <v>1</v>
@@ -7958,10 +7944,10 @@
         <v>1</v>
       </c>
       <c r="AO53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ53" s="8" t="s">
         <v>1</v>
@@ -7970,45 +7956,25 @@
         <v>2</v>
       </c>
       <c r="AS53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT53" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV53" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AW53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX53" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AY53" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
